--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -66,6 +66,12 @@
     <t>正一门</t>
   </si>
   <si>
+    <t>百草堂</t>
+  </si>
+  <si>
+    <t>万毒门</t>
+  </si>
+  <si>
     <t>无双门</t>
   </si>
   <si>
@@ -81,6 +87,21 @@
     <t>天机门</t>
   </si>
   <si>
+    <t>百剑堂</t>
+  </si>
+  <si>
+    <t>飞星观</t>
+  </si>
+  <si>
+    <t>离火教</t>
+  </si>
+  <si>
+    <t>如意宗</t>
+  </si>
+  <si>
+    <t>血煞宗</t>
+  </si>
+  <si>
     <t>白莲教</t>
   </si>
   <si>
@@ -144,15 +165,6 @@
     <t>金乌宗</t>
   </si>
   <si>
-    <t>百草堂</t>
-  </si>
-  <si>
-    <t>百剑堂</t>
-  </si>
-  <si>
-    <t>飞星观</t>
-  </si>
-  <si>
     <t>缚仙宗</t>
   </si>
   <si>
@@ -171,9 +183,6 @@
     <t>雷灵宗</t>
   </si>
   <si>
-    <t>离火教</t>
-  </si>
-  <si>
     <t>灵泉宗</t>
   </si>
   <si>
@@ -186,9 +195,6 @@
     <t>清薇宗</t>
   </si>
   <si>
-    <t>如意宗</t>
-  </si>
-  <si>
     <t>森罗殿</t>
   </si>
   <si>
@@ -207,12 +213,6 @@
     <t>天谕宗</t>
   </si>
   <si>
-    <t>万毒门</t>
-  </si>
-  <si>
-    <t>血煞宗</t>
-  </si>
-  <si>
     <t>烟雨阁</t>
   </si>
   <si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>诛仙门</t>
+  </si>
+  <si>
+    <t>长生秘法</t>
+  </si>
+  <si>
+    <t>每回合初，恢复攻击*5%的气血</t>
   </si>
 </sst>
 </file>
@@ -231,18 +237,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,46 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,47 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +282,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,7 +310,70 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,15 +389,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,31 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +652,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,38 +689,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,148 +728,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -886,31 +877,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1327,951 +1318,975 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A53" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54"/>
@@ -2420,7 +2435,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:J82">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="B9"/>
   </sortState>
   <conditionalFormatting sqref="D2:D52">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="邪">

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12480"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,9 @@
     <t>血煞宗</t>
   </si>
   <si>
+    <t>流云阁</t>
+  </si>
+  <si>
     <t>白莲教</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
   </si>
   <si>
     <t>灵泉宗</t>
-  </si>
-  <si>
-    <t>流云阁</t>
   </si>
   <si>
     <t>青云剑宗</t>
@@ -236,8 +236,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -265,6 +265,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -279,18 +326,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,24 +373,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,68 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -417,163 +417,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,51 +622,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,20 +650,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +690,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,137 +743,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,9 +899,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1679,11 +1676,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -1717,7 +1714,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -1726,44 +1723,44 @@
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -1782,7 +1779,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -1801,7 +1798,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -1820,7 +1817,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -1829,44 +1826,44 @@
       <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4">
@@ -1879,60 +1876,62 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
@@ -1946,7 +1945,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
@@ -1963,7 +1962,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4"/>
@@ -1980,7 +1979,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
@@ -1997,7 +1996,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
@@ -2014,7 +2013,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
       <c r="B38" s="4"/>
@@ -2031,7 +2030,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
       <c r="B39" s="4"/>
@@ -2048,7 +2047,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
@@ -2280,7 +2279,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="5" t="s">
         <v>69</v>
       </c>
@@ -2435,7 +2434,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:J82">
-    <sortCondition ref="B9"/>
+    <sortCondition ref="B5"/>
   </sortState>
   <conditionalFormatting sqref="D2:D52">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="邪">

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -174,6 +174,12 @@
     <t>幻心门</t>
   </si>
   <si>
+    <t>泄元术</t>
+  </si>
+  <si>
+    <t>有概率目标攻击减少3%（上限15%）</t>
+  </si>
+  <si>
     <t>火凰宗</t>
   </si>
   <si>
@@ -205,6 +211,12 @@
   </si>
   <si>
     <t>水月宗</t>
+  </si>
+  <si>
+    <t>伏龙天翔</t>
+  </si>
+  <si>
+    <t>攻击*100%+根骨*100%+敏捷*300%</t>
   </si>
   <si>
     <t>四象宗</t>
@@ -236,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +271,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -273,11 +306,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,11 +329,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,90 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,169 +429,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +638,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -637,15 +664,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +683,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,25 +722,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,16 +755,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,115 +773,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,7 +1289,7 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
     <col min="10" max="10" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -1695,7 +1707,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -1714,7 +1726,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -1733,7 +1745,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -1760,7 +1772,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -1779,7 +1791,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -1798,7 +1810,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -1817,7 +1829,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -1836,7 +1848,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4">
@@ -1863,7 +1875,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4">
@@ -1882,7 +1894,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4">
@@ -1903,7 +1915,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4">
@@ -1926,7 +1938,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="4">
@@ -1945,7 +1957,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="4"/>
@@ -1974,17 +1986,21 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1996,12 +2012,12 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2013,12 +2029,12 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2030,12 +2046,12 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2047,12 +2063,12 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2069,7 +2085,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2086,7 +2102,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2103,7 +2119,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2120,7 +2136,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2137,7 +2153,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2152,16 +2168,21 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
       <c r="C46" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10">
@@ -2171,7 +2192,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2188,7 +2209,7 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2205,7 +2226,7 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2222,7 +2243,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2239,7 +2260,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2256,7 +2277,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2273,7 +2294,7 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2281,10 +2302,10 @@
       <c r="G53" s="8"/>
       <c r="H53" s="7"/>
       <c r="I53" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3">

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -105,6 +105,9 @@
     <t>流云阁</t>
   </si>
   <si>
+    <t>烟雨阁</t>
+  </si>
+  <si>
     <t>白莲教</t>
   </si>
   <si>
@@ -168,6 +171,15 @@
     <t>金乌宗</t>
   </si>
   <si>
+    <t>水月宗</t>
+  </si>
+  <si>
+    <t>伏龙天翔</t>
+  </si>
+  <si>
+    <t>攻击*100%+根骨*100%+敏捷*300%</t>
+  </si>
+  <si>
     <t>缚仙宗</t>
   </si>
   <si>
@@ -210,22 +222,10 @@
     <t>沈螺点</t>
   </si>
   <si>
-    <t>水月宗</t>
-  </si>
-  <si>
-    <t>伏龙天翔</t>
-  </si>
-  <si>
-    <t>攻击*100%+根骨*100%+敏捷*300%</t>
-  </si>
-  <si>
     <t>四象宗</t>
   </si>
   <si>
     <t>天谕宗</t>
-  </si>
-  <si>
-    <t>烟雨阁</t>
   </si>
   <si>
     <t>阴阳宗</t>
@@ -249,9 +249,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -270,53 +270,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,30 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +334,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -393,15 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +406,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -429,19 +429,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,37 +549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,103 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +634,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,55 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -743,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,137 +755,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,13 +904,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1711,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
@@ -1720,9 +1723,9 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3">
@@ -1754,18 +1757,10 @@
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1779,12 +1774,20 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1857,21 +1860,13 @@
       <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3">
@@ -1882,15 +1877,23 @@
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3">
@@ -1907,9 +1910,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
@@ -1922,19 +1923,17 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3">
@@ -1945,22 +1944,28 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
@@ -1977,21 +1982,23 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3">
@@ -2024,8 +2031,12 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="3">
@@ -2034,7 +2045,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2051,7 +2062,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2068,7 +2079,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2085,7 +2096,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2102,7 +2113,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2119,7 +2130,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2136,7 +2147,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2153,7 +2164,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2168,21 +2179,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4">
-        <v>4</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10">
@@ -2198,9 +2204,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="3">
@@ -2215,9 +2221,9 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="3">
@@ -2232,9 +2238,9 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="3">
@@ -2249,9 +2255,9 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="3">
@@ -2266,9 +2272,9 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="3">
@@ -2283,9 +2289,9 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="3">
@@ -2300,7 +2306,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="5" t="s">
         <v>73</v>
       </c>
@@ -2455,7 +2461,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:J82">
-    <sortCondition ref="B5"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="D2:D52">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="邪">

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -159,6 +159,9 @@
     <t>紫云天书</t>
   </si>
   <si>
+    <t>增加修炼速度</t>
+  </si>
+  <si>
     <t>红尘教</t>
   </si>
   <si>
@@ -180,67 +183,100 @@
     <t>攻击*100%+根骨*100%+敏捷*300%</t>
   </si>
   <si>
+    <t>幻心门</t>
+  </si>
+  <si>
+    <t>泄元术</t>
+  </si>
+  <si>
+    <t>有概率目标攻击减少3%（上限15%）</t>
+  </si>
+  <si>
+    <t>崂山派</t>
+  </si>
+  <si>
+    <t>剑化万千（群攻）</t>
+  </si>
+  <si>
+    <t>攻击*120%+木系*200%+土系*200%</t>
+  </si>
+  <si>
+    <t>四象宗</t>
+  </si>
+  <si>
+    <t>炼丹</t>
+  </si>
+  <si>
+    <t>大湮灭术</t>
+  </si>
+  <si>
+    <t>攻击*100%+体魄*400%</t>
+  </si>
+  <si>
+    <t>御兽宗</t>
+  </si>
+  <si>
+    <t>雷龙咆哮</t>
+  </si>
+  <si>
+    <t>攻击*100%+根骨*300%+体魄*100%</t>
+  </si>
+  <si>
+    <t>青云剑宗</t>
+  </si>
+  <si>
+    <t>聚灵秘法</t>
+  </si>
+  <si>
+    <t>战斗中，暴击率增加6%</t>
+  </si>
+  <si>
+    <t>森罗殿</t>
+  </si>
+  <si>
+    <t>森罗秘籍</t>
+  </si>
+  <si>
+    <t>增加灵气获取</t>
+  </si>
+  <si>
+    <t>阴阳宗</t>
+  </si>
+  <si>
+    <t>长生秘法</t>
+  </si>
+  <si>
+    <t>每回合初，恢复攻击*5%的气血</t>
+  </si>
+  <si>
     <t>缚仙宗</t>
   </si>
   <si>
-    <t>幻心门</t>
-  </si>
-  <si>
-    <t>泄元术</t>
-  </si>
-  <si>
-    <t>有概率目标攻击减少3%（上限15%）</t>
-  </si>
-  <si>
     <t>火凰宗</t>
   </si>
   <si>
     <t>昆仑门</t>
   </si>
   <si>
-    <t>崂山派</t>
-  </si>
-  <si>
     <t>雷灵宗</t>
   </si>
   <si>
     <t>灵泉宗</t>
   </si>
   <si>
-    <t>青云剑宗</t>
-  </si>
-  <si>
     <t>清薇宗</t>
   </si>
   <si>
-    <t>森罗殿</t>
-  </si>
-  <si>
     <t>神宵宗</t>
   </si>
   <si>
     <t>沈螺点</t>
   </si>
   <si>
-    <t>四象宗</t>
-  </si>
-  <si>
     <t>天谕宗</t>
   </si>
   <si>
-    <t>阴阳宗</t>
-  </si>
-  <si>
-    <t>御兽宗</t>
-  </si>
-  <si>
     <t>诛仙门</t>
-  </si>
-  <si>
-    <t>长生秘法</t>
-  </si>
-  <si>
-    <t>每回合初，恢复攻击*5%的气血</t>
   </si>
 </sst>
 </file>
@@ -250,10 +286,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,33 +308,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,23 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,13 +345,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -370,13 +359,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -385,7 +419,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,21 +434,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,67 +473,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9FBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,120 +641,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -639,33 +695,43 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -686,17 +752,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +789,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -743,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,137 +824,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +964,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -907,13 +1012,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,16 +1081,25 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.4"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="5" tint="-0.25"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="8" tint="0.4"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="6" tint="-0.25"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F9FBFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1281,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1292,11 +1406,13 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="10" max="10" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1322,13 +1438,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A53" si="0">ROW()-1</f>
         <v>1</v>
@@ -1346,8 +1465,9 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1365,8 +1485,9 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1384,8 +1505,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1403,8 +1525,9 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1422,8 +1545,9 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1441,8 +1565,9 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1460,8 +1585,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1479,8 +1605,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1498,236 +1625,249 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1745,8 +1885,9 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1764,8 +1905,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1782,17 +1924,18 @@
       <c r="E25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1810,8 +1953,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1829,8 +1973,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1848,8 +1993,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1867,8 +2013,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1888,14 +2035,15 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1913,8 +2061,9 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1932,10 +2081,13 @@
       <c r="H32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1944,21 +2096,22 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1967,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1976,343 +2129,401 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="15">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="15">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="15">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="3">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="3">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54"/>
@@ -2460,7 +2671,7 @@
       <c r="C82"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J82">
+  <sortState ref="A2:K82">
     <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="D2:D52">
@@ -2477,11 +2688,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
+      <formula1>"炼丹,炼器"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
       <formula1>"正,邪"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
-      <formula1>"炼丹,炼器"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -284,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,20 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -336,39 +322,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,6 +377,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -404,8 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,44 +451,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -485,187 +485,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +707,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -722,17 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,26 +788,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,21 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:K53"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2688,11 +2688,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
+      <formula1>"正,邪"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
       <formula1>"炼丹,炼器"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
-      <formula1>"正,邪"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$53</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -284,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,6 +317,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -322,11 +346,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,7 +415,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,99 +446,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,25 +488,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,157 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,30 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -757,15 +736,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +764,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -812,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +827,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2671,6 +2674,9 @@
       <c r="C82"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:K82">
     <sortCondition ref="B2"/>
   </sortState>

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>序号</t>
   </si>
@@ -96,6 +96,12 @@
     <t>飞星观</t>
   </si>
   <si>
+    <t>飞星天书</t>
+  </si>
+  <si>
+    <t>增加修炼速度</t>
+  </si>
+  <si>
     <t>离火教</t>
   </si>
   <si>
@@ -162,9 +168,6 @@
     <t>紫云天书</t>
   </si>
   <si>
-    <t>增加修炼速度</t>
-  </si>
-  <si>
     <t>红尘教</t>
   </si>
   <si>
@@ -252,6 +255,18 @@
     <t>每回合初，恢复攻击*5%的气血</t>
   </si>
   <si>
+    <t>神宵宗</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>漫天星火（群攻）</t>
+  </si>
+  <si>
+    <t>攻击*120%+金系*200%+火系*200%</t>
+  </si>
+  <si>
     <t>缚仙宗</t>
   </si>
   <si>
@@ -268,9 +283,6 @@
   </si>
   <si>
     <t>清薇宗</t>
-  </si>
-  <si>
-    <t>神宵宗</t>
   </si>
   <si>
     <t>沈螺点</t>
@@ -317,66 +329,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,9 +360,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +391,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +428,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -437,19 +444,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +458,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -488,163 +500,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,17 +722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,8 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,8 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,121 +839,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +962,7 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1401,7 +1413,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1765,8 +1777,12 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
@@ -1779,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1799,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1819,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1839,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1859,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1879,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1899,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1919,19 +1935,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1947,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1967,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1987,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2007,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2027,23 +2043,23 @@
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2055,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2075,17 +2091,17 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2099,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2108,10 +2124,10 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2123,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2143,15 +2159,15 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2167,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2176,10 +2192,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2191,15 +2207,15 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2215,17 +2231,17 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2241,15 +2257,15 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -2265,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2274,10 +2290,10 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2289,17 +2305,17 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -2313,49 +2329,59 @@
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="15">
-        <f t="shared" si="0"/>
+      <c r="A43" s="6">
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="20"/>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -2368,12 +2394,12 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -2386,12 +2412,12 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -2404,12 +2430,12 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -2422,12 +2448,12 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -2440,12 +2466,12 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -2463,7 +2489,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -2481,7 +2507,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -2499,7 +2525,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2517,7 +2543,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -2678,18 +2704,31 @@
     <extLst/>
   </autoFilter>
   <sortState ref="A2:K82">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="B16"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D52">
+  <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="邪">
+      <formula>NOT(ISERROR(SEARCH("邪",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="丹">
+      <formula>NOT(ISERROR(SEARCH("丹",E43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="between" text="器">
+      <formula>NOT(ISERROR(SEARCH("器",E43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D42 D44:D52">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="邪">
       <formula>NOT(ISERROR(SEARCH("邪",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E52">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="丹">
+  <conditionalFormatting sqref="E2:E42 E44:E52">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="between" text="丹">
       <formula>NOT(ISERROR(SEARCH("丹",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="between" text="器">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="器">
       <formula>NOT(ISERROR(SEARCH("器",E2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>玄冰宫</t>
+  </si>
+  <si>
+    <t>玄冰天书</t>
   </si>
   <si>
     <t>玄武门</t>
@@ -299,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -330,7 +333,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -338,22 +341,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -375,6 +363,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -383,14 +385,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +407,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,24 +447,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,13 +475,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -500,13 +503,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,150 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -675,12 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,21 +735,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -766,6 +754,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,133 +842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2029,8 +2032,12 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
@@ -2043,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>35</v>
@@ -2056,10 +2063,10 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2071,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2091,14 +2098,14 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>26</v>
@@ -2115,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2124,10 +2131,10 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2139,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2159,15 +2166,15 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2183,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2192,10 +2199,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2207,15 +2214,15 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2231,17 +2238,17 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2257,15 +2264,15 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="12" t="s">
         <v>68</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -2281,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2290,10 +2297,10 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2305,17 +2312,17 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -2329,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
@@ -2340,34 +2347,34 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="6">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -2376,12 +2383,12 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -2394,12 +2401,12 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -2412,12 +2419,12 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -2430,12 +2437,12 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -2448,12 +2455,12 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -2466,12 +2473,12 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -2489,7 +2496,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -2507,7 +2514,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -2525,7 +2532,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2543,7 +2550,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>

--- a/修真聊天群/门派.xlsx
+++ b/修真聊天群/门派.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -60,6 +60,12 @@
     <t>霸刀门</t>
   </si>
   <si>
+    <t>龙虎碎金</t>
+  </si>
+  <si>
+    <t>攻击*100%+金系*100%</t>
+  </si>
+  <si>
     <t>水云天</t>
   </si>
   <si>
@@ -69,6 +75,12 @@
     <t>正一门</t>
   </si>
   <si>
+    <t>横扫六合</t>
+  </si>
+  <si>
+    <t>攻击*120%伤害</t>
+  </si>
+  <si>
     <t>百草堂</t>
   </si>
   <si>
@@ -90,6 +102,12 @@
     <t>天机门</t>
   </si>
   <si>
+    <t>鸿蒙仙音</t>
+  </si>
+  <si>
+    <t>攻击*100%+根骨*300%</t>
+  </si>
+  <si>
     <t>百剑堂</t>
   </si>
   <si>
@@ -120,9 +138,18 @@
     <t>白莲教</t>
   </si>
   <si>
+    <t>四象水牢</t>
+  </si>
+  <si>
+    <t>攻击*120%+土系*300%</t>
+  </si>
+  <si>
     <t>碧落宗</t>
   </si>
   <si>
+    <t>飞岩狂沙</t>
+  </si>
+  <si>
     <t>断剑山庄</t>
   </si>
   <si>
@@ -144,6 +171,12 @@
     <t>青城派</t>
   </si>
   <si>
+    <t>揉云剑诀</t>
+  </si>
+  <si>
+    <t>攻击*120%+敏捷*400%</t>
+  </si>
+  <si>
     <t>桃花宗</t>
   </si>
   <si>
@@ -165,6 +198,12 @@
     <t>长生教</t>
   </si>
   <si>
+    <t>长生秘籍</t>
+  </si>
+  <si>
+    <t>增加灵气获取</t>
+  </si>
+  <si>
     <t>紫云门</t>
   </si>
   <si>
@@ -183,6 +222,12 @@
     <t>金乌宗</t>
   </si>
   <si>
+    <t>天悲印</t>
+  </si>
+  <si>
+    <t>攻击*120%+金系*300%</t>
+  </si>
+  <si>
     <t>水月宗</t>
   </si>
   <si>
@@ -246,9 +291,6 @@
     <t>森罗秘籍</t>
   </si>
   <si>
-    <t>增加灵气获取</t>
-  </si>
-  <si>
     <t>阴阳宗</t>
   </si>
   <si>
@@ -270,6 +312,12 @@
     <t>攻击*120%+金系*200%+火系*200%</t>
   </si>
   <si>
+    <t>天谕宗</t>
+  </si>
+  <si>
+    <t>天谕天书</t>
+  </si>
+  <si>
     <t>缚仙宗</t>
   </si>
   <si>
@@ -289,9 +337,6 @@
   </si>
   <si>
     <t>沈螺点</t>
-  </si>
-  <si>
-    <t>天谕宗</t>
   </si>
   <si>
     <t>诛仙门</t>
@@ -302,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -332,11 +377,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +401,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +428,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -377,7 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,29 +458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -422,9 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,14 +484,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -455,7 +491,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,13 +520,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -503,37 +548,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,133 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,15 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -753,7 +789,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,6 +805,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +859,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -830,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,137 +887,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,10 +1078,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1538,8 +1586,12 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1554,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1574,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1594,12 +1646,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1614,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1634,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1654,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1674,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1694,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1714,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1734,12 +1790,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1754,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1774,17 +1834,17 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1798,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1818,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1838,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1858,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1878,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1898,12 +1958,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1918,12 +1982,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1938,19 +2006,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1966,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1986,12 +2054,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2006,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2026,17 +2098,17 @@
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2050,23 +2122,23 @@
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2078,14 +2150,18 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -2098,17 +2174,17 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2122,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2131,10 +2207,10 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2146,12 +2222,16 @@
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2166,15 +2246,15 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2190,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2199,10 +2279,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2214,15 +2294,15 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2238,17 +2318,17 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2264,15 +2344,15 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -2288,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2297,10 +2377,10 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2312,17 +2392,17 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -2336,21 +2416,21 @@
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2362,19 +2442,19 @@
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="F43" s="12" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -2383,30 +2463,36 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="16">
+        <v>5</v>
+      </c>
       <c r="C44" s="16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="H44" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="18"/>
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -2419,12 +2505,12 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -2433,16 +2519,16 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -2451,16 +2537,16 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -2473,12 +2559,12 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -2491,12 +2577,12 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -2509,21 +2595,21 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15">
@@ -2532,7 +2618,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2550,7 +2636,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -2711,7 +2797,7 @@
     <extLst/>
   </autoFilter>
   <sortState ref="A2:K82">
-    <sortCondition ref="B16"/>
+    <sortCondition ref="B24"/>
   </sortState>
   <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="邪">
